--- a/Code/Results/Cases/Case_1_67/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_67/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.18081885750904</v>
+        <v>16.65126913244769</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.113978570195667</v>
+        <v>5.438758906836134</v>
       </c>
       <c r="E2">
-        <v>10.44728512567045</v>
+        <v>16.45815516714121</v>
       </c>
       <c r="F2">
-        <v>24.20955493613837</v>
+        <v>28.57045719014965</v>
       </c>
       <c r="G2">
-        <v>33.75591461496421</v>
+        <v>36.44697243724561</v>
       </c>
       <c r="H2">
-        <v>10.8857937664347</v>
+        <v>15.96245578658778</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.84698561630109</v>
+        <v>9.536744868163485</v>
       </c>
       <c r="L2">
-        <v>7.008561959302096</v>
+        <v>8.828641205660858</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.51538081423665</v>
+        <v>20.57779678225955</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.51665739087325</v>
+        <v>16.54798198233219</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.096826164021048</v>
+        <v>5.429752380233798</v>
       </c>
       <c r="E3">
-        <v>10.52706275461837</v>
+        <v>16.49709415470262</v>
       </c>
       <c r="F3">
-        <v>23.39419823936948</v>
+        <v>28.485987986974</v>
       </c>
       <c r="G3">
-        <v>32.47177963334647</v>
+        <v>36.26388192742439</v>
       </c>
       <c r="H3">
-        <v>10.77186683046019</v>
+        <v>15.98575378650728</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.95384418481053</v>
+        <v>9.227148350241642</v>
       </c>
       <c r="L3">
-        <v>6.684362807724556</v>
+        <v>8.789046906251006</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.74140633405029</v>
+        <v>20.64304890491348</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.09998917385279</v>
+        <v>16.48798100918538</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.086108536635702</v>
+        <v>5.424112203045601</v>
       </c>
       <c r="E4">
-        <v>10.57927155933473</v>
+        <v>16.52255671698286</v>
       </c>
       <c r="F4">
-        <v>22.90169474403598</v>
+        <v>28.44193479066537</v>
       </c>
       <c r="G4">
-        <v>31.69287568103684</v>
+        <v>36.16268690329398</v>
       </c>
       <c r="H4">
-        <v>10.70961859271426</v>
+        <v>16.00312481525255</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.37725900288542</v>
+        <v>9.033873482264488</v>
       </c>
       <c r="L4">
-        <v>6.491117679026898</v>
+        <v>8.766455163055239</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.88341548254655</v>
+        <v>20.68501532554269</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.92819940158675</v>
+        <v>16.46441142218822</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.081697202747039</v>
+        <v>5.4217864365063</v>
       </c>
       <c r="E5">
-        <v>10.60134784189978</v>
+        <v>16.53332439394014</v>
       </c>
       <c r="F5">
-        <v>22.70327197092021</v>
+        <v>28.42595863949198</v>
       </c>
       <c r="G5">
-        <v>31.37826325844813</v>
+        <v>36.12430348909569</v>
       </c>
       <c r="H5">
-        <v>10.68614328492369</v>
+        <v>16.0109735000431</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.13522779785624</v>
+        <v>8.954445479570687</v>
       </c>
       <c r="L5">
-        <v>6.411627226730456</v>
+        <v>8.757688305313113</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.94211809768554</v>
+        <v>20.70259632894252</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.89956099854183</v>
+        <v>16.46055154986297</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.080962144526</v>
+        <v>5.421398603088636</v>
       </c>
       <c r="E6">
-        <v>10.60506167466985</v>
+        <v>16.53513602464521</v>
       </c>
       <c r="F6">
-        <v>22.67046847429375</v>
+        <v>28.42342544427806</v>
       </c>
       <c r="G6">
-        <v>31.32620303631812</v>
+        <v>36.11810319530476</v>
       </c>
       <c r="H6">
-        <v>10.68235805816487</v>
+        <v>16.01232322916491</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.0946127981209</v>
+        <v>8.941220322383083</v>
       </c>
       <c r="L6">
-        <v>6.398386594524793</v>
+        <v>8.756259314693695</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.95191651822551</v>
+        <v>20.70554462889917</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.09768009274447</v>
+        <v>16.4876595453145</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.086049217332388</v>
+        <v>5.424080947231503</v>
       </c>
       <c r="E7">
-        <v>10.57956605832964</v>
+        <v>16.52270034756041</v>
       </c>
       <c r="F7">
-        <v>22.89900921410096</v>
+        <v>28.44171131684118</v>
       </c>
       <c r="G7">
-        <v>31.68862084314682</v>
+        <v>36.16215765502395</v>
       </c>
       <c r="H7">
-        <v>10.70929440135552</v>
+        <v>16.00322754990304</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.37402346213086</v>
+        <v>9.032804805679376</v>
       </c>
       <c r="L7">
-        <v>6.490048490071869</v>
+        <v>8.766335141794443</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.88420376755889</v>
+        <v>20.68525048662637</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.95378811114247</v>
+        <v>16.61495991292978</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.108104786699414</v>
+        <v>5.435676519664994</v>
       </c>
       <c r="E8">
-        <v>10.47411670772531</v>
+        <v>16.47125927249154</v>
       </c>
       <c r="F8">
-        <v>23.92686862805888</v>
+        <v>28.53971872096567</v>
       </c>
       <c r="G8">
-        <v>33.31138757687421</v>
+        <v>36.38153421588855</v>
       </c>
       <c r="H8">
-        <v>10.84488643089218</v>
+        <v>15.96985197829855</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.54488888891771</v>
+        <v>9.430732993890773</v>
       </c>
       <c r="L8">
-        <v>6.88772655322689</v>
+        <v>8.814636689924797</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.59265708529241</v>
+        <v>20.5999018352999</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.55360684355505</v>
+        <v>16.8906889866595</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.149751095297422</v>
+        <v>5.457527115318526</v>
       </c>
       <c r="E9">
-        <v>10.29342280797901</v>
+        <v>16.38267916451618</v>
       </c>
       <c r="F9">
-        <v>25.99756522818198</v>
+        <v>28.79326663798089</v>
       </c>
       <c r="G9">
-        <v>36.55398862216423</v>
+        <v>36.89914091246938</v>
       </c>
       <c r="H9">
-        <v>11.17379720173833</v>
+        <v>15.92877332308687</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.6172478072544</v>
+        <v>10.18049775875078</v>
       </c>
       <c r="L9">
-        <v>7.876977382328898</v>
+        <v>8.922659759059465</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.04557574675174</v>
+        <v>20.44756227663083</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.67161043094626</v>
+        <v>17.10771838304982</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.179198095960748</v>
+        <v>5.473020949936123</v>
       </c>
       <c r="E10">
-        <v>10.17734498752657</v>
+        <v>16.32504873862548</v>
       </c>
       <c r="F10">
-        <v>27.54144345631921</v>
+        <v>29.01596255757254</v>
       </c>
       <c r="G10">
-        <v>38.95562230384111</v>
+        <v>37.33020391111756</v>
       </c>
       <c r="H10">
-        <v>11.45628181071975</v>
+        <v>15.91350063921828</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.00456179976599</v>
+        <v>10.83672947963153</v>
       </c>
       <c r="L10">
-        <v>8.557693940177487</v>
+        <v>9.009647549778879</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.65725925630496</v>
+        <v>20.34471834831893</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.16641598013068</v>
+        <v>17.20925709143772</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.192307836486614</v>
+        <v>5.47994413373819</v>
       </c>
       <c r="E11">
-        <v>10.12835456040672</v>
+        <v>16.30043896994118</v>
       </c>
       <c r="F11">
-        <v>28.24689877334391</v>
+        <v>29.12492107051287</v>
       </c>
       <c r="G11">
-        <v>40.04971583152936</v>
+        <v>37.5367095963224</v>
       </c>
       <c r="H11">
-        <v>11.59413708621915</v>
+        <v>15.90979664412278</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.60682799241103</v>
+        <v>11.13871659253766</v>
       </c>
       <c r="L11">
-        <v>8.853331865885092</v>
+        <v>9.050762224664156</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.48325182341766</v>
+        <v>20.2998861548747</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.35172731853575</v>
+        <v>17.24808226087215</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.197227966547619</v>
+        <v>5.4825474396428</v>
       </c>
       <c r="E12">
-        <v>10.11037015536324</v>
+        <v>16.29135018823516</v>
       </c>
       <c r="F12">
-        <v>28.5143790585949</v>
+        <v>29.1672561211228</v>
       </c>
       <c r="G12">
-        <v>40.46409905821417</v>
+        <v>37.6163474467814</v>
       </c>
       <c r="H12">
-        <v>11.64772152857919</v>
+        <v>15.90886062376867</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.83079999750046</v>
+        <v>11.25070878917686</v>
       </c>
       <c r="L12">
-        <v>8.963298832423286</v>
+        <v>9.066543007690965</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.41771397985393</v>
+        <v>20.28318880254322</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.31190986765209</v>
+        <v>17.23970437947602</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.196170346306117</v>
+        <v>5.481987593334237</v>
       </c>
       <c r="E13">
-        <v>10.11421787217948</v>
+        <v>16.29329738257934</v>
       </c>
       <c r="F13">
-        <v>28.45675869428992</v>
+        <v>29.15809113735688</v>
       </c>
       <c r="G13">
-        <v>40.37485274080971</v>
+        <v>37.59913299637505</v>
       </c>
       <c r="H13">
-        <v>11.63611911935935</v>
+        <v>15.90904145988342</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.78274471339213</v>
+        <v>11.22669471555187</v>
       </c>
       <c r="L13">
-        <v>8.939703194975838</v>
+        <v>9.063135094497106</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.43181333210237</v>
+        <v>20.28677245657889</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.18170332538219</v>
+        <v>17.21244392404488</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.192713523261245</v>
+        <v>5.48015867924576</v>
       </c>
       <c r="E14">
-        <v>10.1268634904094</v>
+        <v>16.29968661630998</v>
       </c>
       <c r="F14">
-        <v>28.26889824611027</v>
+        <v>29.12838261366253</v>
       </c>
       <c r="G14">
-        <v>40.08380657676128</v>
+        <v>37.54323296572114</v>
       </c>
       <c r="H14">
-        <v>11.59851760773592</v>
+        <v>15.90971028557557</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.62533599818104</v>
+        <v>11.14797774804778</v>
       </c>
       <c r="L14">
-        <v>8.862418492788175</v>
+        <v>9.052056340306178</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.47785301247991</v>
+        <v>20.29850685561216</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.10167774194728</v>
+        <v>17.19579401300373</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.190590264245</v>
+        <v>5.47903601533984</v>
       </c>
       <c r="E15">
-        <v>10.13468375413387</v>
+        <v>16.30363019344263</v>
       </c>
       <c r="F15">
-        <v>28.15386980930608</v>
+        <v>29.11032446295639</v>
       </c>
       <c r="G15">
-        <v>39.90553846967661</v>
+        <v>37.50917813682463</v>
       </c>
       <c r="H15">
-        <v>11.57566662722752</v>
+        <v>15.91018072728171</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.52838730739354</v>
+        <v>11.09945288897283</v>
       </c>
       <c r="L15">
-        <v>8.814821934354992</v>
+        <v>9.045297518355341</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.50609914386352</v>
+        <v>20.30573089786891</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.63898910888274</v>
+        <v>17.10113664182663</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.178335323279301</v>
+        <v>5.472565955553837</v>
       </c>
       <c r="E16">
-        <v>10.18062493365106</v>
+        <v>16.32668932029886</v>
       </c>
       <c r="F16">
-        <v>27.49539311773558</v>
+        <v>29.00899371316782</v>
       </c>
       <c r="G16">
-        <v>38.88413803280817</v>
+        <v>37.31691286735857</v>
       </c>
       <c r="H16">
-        <v>11.44746397202726</v>
+        <v>15.91380799394959</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.9646264106482</v>
+        <v>10.8166643011958</v>
       </c>
       <c r="L16">
-        <v>8.53809374233952</v>
+        <v>9.006990787048046</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.66868207170445</v>
+        <v>20.34768742531016</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.35155109855106</v>
+        <v>17.04376654601309</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.170741868428387</v>
+        <v>5.468564491933908</v>
       </c>
       <c r="E17">
-        <v>10.20979795236283</v>
+        <v>16.34124639032095</v>
       </c>
       <c r="F17">
-        <v>27.09215252401503</v>
+        <v>28.94877309165365</v>
       </c>
       <c r="G17">
-        <v>38.25781852633335</v>
+        <v>37.20159061684542</v>
       </c>
       <c r="H17">
-        <v>11.37123719809666</v>
+        <v>15.91686416907262</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.61142739422982</v>
+        <v>10.63899606653514</v>
       </c>
       <c r="L17">
-        <v>8.364759498991269</v>
+        <v>8.983878888741566</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.76908010107249</v>
+        <v>20.37392558860695</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.1849304524888</v>
+        <v>17.0110351775851</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.16634759648492</v>
+        <v>5.466251208772249</v>
       </c>
       <c r="E18">
-        <v>10.22693525409948</v>
+        <v>16.34977048967507</v>
       </c>
       <c r="F18">
-        <v>26.86051910682738</v>
+        <v>28.91485779160904</v>
       </c>
       <c r="G18">
-        <v>37.8977301825896</v>
+        <v>37.13624416249468</v>
       </c>
       <c r="H18">
-        <v>11.3282716169</v>
+        <v>15.9189273092436</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.40555923058288</v>
+        <v>10.53527532960426</v>
       </c>
       <c r="L18">
-        <v>8.263740089620509</v>
+        <v>8.970731464372586</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.8270763429251</v>
+        <v>20.38920088312304</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.1282961492973</v>
+        <v>16.99999954170276</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.16485527837455</v>
+        <v>5.465465964667809</v>
       </c>
       <c r="E19">
-        <v>10.23279855395565</v>
+        <v>16.3526826010383</v>
       </c>
       <c r="F19">
-        <v>26.78214747259319</v>
+        <v>28.90349940809259</v>
       </c>
       <c r="G19">
-        <v>37.7758425517486</v>
+        <v>37.11428968984581</v>
       </c>
       <c r="H19">
-        <v>11.31387389168548</v>
+        <v>15.9196782812764</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.33538765646893</v>
+        <v>10.49989519118464</v>
       </c>
       <c r="L19">
-        <v>8.229308675740899</v>
+        <v>8.966305346683361</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.84675654851893</v>
+        <v>20.39440443563968</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.38228393054952</v>
+        <v>17.04984633197579</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.171552992557462</v>
+        <v>5.468991673047956</v>
       </c>
       <c r="E20">
-        <v>10.20665527889124</v>
+        <v>16.33968111532128</v>
       </c>
       <c r="F20">
-        <v>27.13504805037372</v>
+        <v>28.95510913386614</v>
       </c>
       <c r="G20">
-        <v>38.32447665921062</v>
+        <v>37.2137654572448</v>
       </c>
       <c r="H20">
-        <v>11.37926052767179</v>
+        <v>15.91650723367457</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.64930692864067</v>
+        <v>10.65806776102458</v>
       </c>
       <c r="L20">
-        <v>8.383347844295177</v>
+        <v>8.986324160958135</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.75836686791693</v>
+        <v>20.37111347682887</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.22000458492744</v>
+        <v>17.22044105078551</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.193730101793959</v>
+        <v>5.48069637672114</v>
       </c>
       <c r="E21">
-        <v>10.12313361264155</v>
+        <v>16.29780369532764</v>
       </c>
       <c r="F21">
-        <v>28.32406891282828</v>
+        <v>29.13707977127246</v>
       </c>
       <c r="G21">
-        <v>40.16929281437761</v>
+        <v>37.55961359969949</v>
       </c>
       <c r="H21">
-        <v>11.60952428994928</v>
+        <v>15.90950117154664</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.67168136899362</v>
+        <v>11.17116314375411</v>
       </c>
       <c r="L21">
-        <v>8.885172471916263</v>
+        <v>9.055304782297931</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.46432060478745</v>
+        <v>20.29505259766348</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.75547143009081</v>
+        <v>17.33410429413605</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.207964776417654</v>
+        <v>5.488238926841927</v>
       </c>
       <c r="E22">
-        <v>10.07186365057163</v>
+        <v>16.27177706561831</v>
       </c>
       <c r="F22">
-        <v>29.10311572484736</v>
+        <v>29.26225971679058</v>
       </c>
       <c r="G22">
-        <v>41.375388218859</v>
+        <v>37.79400137923619</v>
       </c>
       <c r="H22">
-        <v>11.76808586909776</v>
+        <v>15.90764193980083</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.31603602151098</v>
+        <v>11.49271542642806</v>
       </c>
       <c r="L22">
-        <v>9.201593393988038</v>
+        <v>9.101615602023799</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.27420205514604</v>
+        <v>20.2469718054854</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.47080369278006</v>
+        <v>17.27325146064988</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.200392231277496</v>
+        <v>5.484223252969789</v>
       </c>
       <c r="E23">
-        <v>10.09891723101617</v>
+        <v>16.28554531576589</v>
       </c>
       <c r="F23">
-        <v>28.68717290569229</v>
+        <v>29.19488579398921</v>
       </c>
       <c r="G23">
-        <v>40.73167078155787</v>
+        <v>37.66815984242497</v>
       </c>
       <c r="H23">
-        <v>11.68270773957111</v>
+        <v>15.90838540141488</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.97429183994242</v>
+        <v>11.32236474447205</v>
       </c>
       <c r="L23">
-        <v>9.033758808492486</v>
+        <v>9.076789811223993</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.37549178820213</v>
+        <v>20.27248469042944</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.36839387413093</v>
+        <v>17.04709687520403</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.171186372475458</v>
+        <v>5.468798584252629</v>
       </c>
       <c r="E24">
-        <v>10.20807494499453</v>
+        <v>16.34038829317384</v>
       </c>
       <c r="F24">
-        <v>27.11565436671951</v>
+        <v>28.95224240699633</v>
       </c>
       <c r="G24">
-        <v>38.29434053274174</v>
+        <v>37.2082582362343</v>
       </c>
       <c r="H24">
-        <v>11.37563051002835</v>
+        <v>15.91666765063982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.63219034546789</v>
+        <v>10.64945035788417</v>
       </c>
       <c r="L24">
-        <v>8.37494831440147</v>
+        <v>8.985218216787324</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.76320945884747</v>
+        <v>20.37238423865547</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.13034174166745</v>
+        <v>16.81344942890593</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.138674267155248</v>
+        <v>5.451712939403131</v>
       </c>
       <c r="E25">
-        <v>10.33943720660128</v>
+        <v>16.40533092143595</v>
       </c>
       <c r="F25">
-        <v>25.43272216843985</v>
+        <v>28.71819960144747</v>
       </c>
       <c r="G25">
-        <v>35.67230445432286</v>
+        <v>36.74999881197252</v>
       </c>
       <c r="H25">
-        <v>11.07781291973047</v>
+        <v>15.9372710888194</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.08050335692017</v>
+        <v>9.981640757603133</v>
       </c>
       <c r="L25">
-        <v>7.613675250277077</v>
+        <v>8.892060711459147</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.19108014954313</v>
+        <v>20.48717375456373</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_67/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_67/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.65126913244769</v>
+        <v>14.18081885750902</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.438758906836134</v>
+        <v>4.113978570195798</v>
       </c>
       <c r="E2">
-        <v>16.45815516714121</v>
+        <v>10.44728512567045</v>
       </c>
       <c r="F2">
-        <v>28.57045719014965</v>
+        <v>24.20955493613835</v>
       </c>
       <c r="G2">
-        <v>36.44697243724561</v>
+        <v>33.75591461496422</v>
       </c>
       <c r="H2">
-        <v>15.96245578658778</v>
+        <v>10.8857937664347</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.536744868163485</v>
+        <v>14.84698561630106</v>
       </c>
       <c r="L2">
-        <v>8.828641205660858</v>
+        <v>7.008561959302051</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.57779678225955</v>
+        <v>13.51538081423662</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.54798198233219</v>
+        <v>13.51665739087319</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.429752380233798</v>
+        <v>4.096826164021181</v>
       </c>
       <c r="E3">
-        <v>16.49709415470262</v>
+        <v>10.52706275461837</v>
       </c>
       <c r="F3">
-        <v>28.485987986974</v>
+        <v>23.39419823936936</v>
       </c>
       <c r="G3">
-        <v>36.26388192742439</v>
+        <v>32.47177963334639</v>
       </c>
       <c r="H3">
-        <v>15.98575378650728</v>
+        <v>10.77186683046011</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.227148350241642</v>
+        <v>13.95384418481064</v>
       </c>
       <c r="L3">
-        <v>8.789046906251006</v>
+        <v>6.684362807724523</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.64304890491348</v>
+        <v>13.74140633405026</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.48798100918538</v>
+        <v>13.09998917385283</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.424112203045601</v>
+        <v>4.086108536635832</v>
       </c>
       <c r="E4">
-        <v>16.52255671698286</v>
+        <v>10.57927155933485</v>
       </c>
       <c r="F4">
-        <v>28.44193479066537</v>
+        <v>22.90169474403599</v>
       </c>
       <c r="G4">
-        <v>36.16268690329398</v>
+        <v>31.6928756810369</v>
       </c>
       <c r="H4">
-        <v>16.00312481525255</v>
+        <v>10.70961859271426</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.033873482264488</v>
+        <v>13.3772590028854</v>
       </c>
       <c r="L4">
-        <v>8.766455163055239</v>
+        <v>6.491117679026953</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.68501532554269</v>
+        <v>13.88341548254655</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.46441142218822</v>
+        <v>12.92819940158673</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.4217864365063</v>
+        <v>4.08169720274704</v>
       </c>
       <c r="E5">
-        <v>16.53332439394014</v>
+        <v>10.60134784189978</v>
       </c>
       <c r="F5">
-        <v>28.42595863949198</v>
+        <v>22.70327197092006</v>
       </c>
       <c r="G5">
-        <v>36.12430348909569</v>
+        <v>31.3782632584479</v>
       </c>
       <c r="H5">
-        <v>16.0109735000431</v>
+        <v>10.68614328492359</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.954445479570687</v>
+        <v>13.13522779785633</v>
       </c>
       <c r="L5">
-        <v>8.757688305313113</v>
+        <v>6.411627226730432</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.70259632894252</v>
+        <v>13.94211809768551</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.46055154986297</v>
+        <v>12.89956099854173</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.421398603088636</v>
+        <v>4.080962144526003</v>
       </c>
       <c r="E6">
-        <v>16.53513602464521</v>
+        <v>10.60506167466978</v>
       </c>
       <c r="F6">
-        <v>28.42342544427806</v>
+        <v>22.67046847429363</v>
       </c>
       <c r="G6">
-        <v>36.11810319530476</v>
+        <v>31.32620303631797</v>
       </c>
       <c r="H6">
-        <v>16.01232322916491</v>
+        <v>10.68235805816482</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.941220322383083</v>
+        <v>13.09461279812094</v>
       </c>
       <c r="L6">
-        <v>8.756259314693695</v>
+        <v>6.398386594524771</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.70554462889917</v>
+        <v>13.95191651822541</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.4876595453145</v>
+        <v>13.09768009274444</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.424080947231503</v>
+        <v>4.086049217332262</v>
       </c>
       <c r="E7">
-        <v>16.52270034756041</v>
+        <v>10.57956605832951</v>
       </c>
       <c r="F7">
-        <v>28.44171131684118</v>
+        <v>22.89900921410111</v>
       </c>
       <c r="G7">
-        <v>36.16215765502395</v>
+        <v>31.68862084314695</v>
       </c>
       <c r="H7">
-        <v>16.00322754990304</v>
+        <v>10.70929440135552</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.032804805679376</v>
+        <v>13.37402346213084</v>
       </c>
       <c r="L7">
-        <v>8.766335141794443</v>
+        <v>6.490048490071873</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.68525048662637</v>
+        <v>13.88420376755893</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.61495991292978</v>
+        <v>13.95378811114247</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.435676519664994</v>
+        <v>4.108104786699545</v>
       </c>
       <c r="E8">
-        <v>16.47125927249154</v>
+        <v>10.47411670772537</v>
       </c>
       <c r="F8">
-        <v>28.53971872096567</v>
+        <v>23.92686862805889</v>
       </c>
       <c r="G8">
-        <v>36.38153421588855</v>
+        <v>33.31138757687421</v>
       </c>
       <c r="H8">
-        <v>15.96985197829855</v>
+        <v>10.84488643089226</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.430732993890773</v>
+        <v>14.5448888889177</v>
       </c>
       <c r="L8">
-        <v>8.814636689924797</v>
+        <v>6.887726553226934</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.5999018352999</v>
+        <v>13.59265708529248</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.8906889866595</v>
+        <v>15.55360684355504</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.457527115318526</v>
+        <v>4.149751095297491</v>
       </c>
       <c r="E9">
-        <v>16.38267916451618</v>
+        <v>10.29342280797889</v>
       </c>
       <c r="F9">
-        <v>28.79326663798089</v>
+        <v>25.997565228182</v>
       </c>
       <c r="G9">
-        <v>36.89914091246938</v>
+        <v>36.55398862216424</v>
       </c>
       <c r="H9">
-        <v>15.92877332308687</v>
+        <v>11.17379720173833</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.18049775875078</v>
+        <v>16.61724780725434</v>
       </c>
       <c r="L9">
-        <v>8.922659759059465</v>
+        <v>7.876977382328885</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.44756227663083</v>
+        <v>13.04557574675172</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.10771838304982</v>
+        <v>16.67161043094624</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.473020949936123</v>
+        <v>4.179198095960627</v>
       </c>
       <c r="E10">
-        <v>16.32504873862548</v>
+        <v>10.17734498752664</v>
       </c>
       <c r="F10">
-        <v>29.01596255757254</v>
+        <v>27.54144345631923</v>
       </c>
       <c r="G10">
-        <v>37.33020391111756</v>
+        <v>38.9556223038411</v>
       </c>
       <c r="H10">
-        <v>15.91350063921828</v>
+        <v>11.45628181071975</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.83672947963153</v>
+        <v>18.00456179976601</v>
       </c>
       <c r="L10">
-        <v>9.009647549778879</v>
+        <v>8.557693940177495</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.34471834831893</v>
+        <v>12.65725925630496</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.20925709143772</v>
+        <v>17.16641598013071</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.47994413373819</v>
+        <v>4.192307836486429</v>
       </c>
       <c r="E11">
-        <v>16.30043896994118</v>
+        <v>10.12835456040672</v>
       </c>
       <c r="F11">
-        <v>29.12492107051287</v>
+        <v>28.24689877334394</v>
       </c>
       <c r="G11">
-        <v>37.5367095963224</v>
+        <v>40.04971583152936</v>
       </c>
       <c r="H11">
-        <v>15.90979664412278</v>
+        <v>11.59413708621915</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.13871659253766</v>
+        <v>18.60682799241106</v>
       </c>
       <c r="L11">
-        <v>9.050762224664156</v>
+        <v>8.853331865885087</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.2998861548747</v>
+        <v>12.48325182341772</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.24808226087215</v>
+        <v>17.35172731853577</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.4825474396428</v>
+        <v>4.197227966547675</v>
       </c>
       <c r="E12">
-        <v>16.29135018823516</v>
+        <v>10.11037015536324</v>
       </c>
       <c r="F12">
-        <v>29.1672561211228</v>
+        <v>28.51437905859487</v>
       </c>
       <c r="G12">
-        <v>37.6163474467814</v>
+        <v>40.4640990582142</v>
       </c>
       <c r="H12">
-        <v>15.90886062376867</v>
+        <v>11.64772152857916</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.25070878917686</v>
+        <v>18.83079999750048</v>
       </c>
       <c r="L12">
-        <v>9.066543007690965</v>
+        <v>8.963298832423307</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.28318880254322</v>
+        <v>12.4177139798539</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.23970437947602</v>
+        <v>17.31190986765209</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.481987593334237</v>
+        <v>4.196170346306119</v>
       </c>
       <c r="E13">
-        <v>16.29329738257934</v>
+        <v>10.11421787217955</v>
       </c>
       <c r="F13">
-        <v>29.15809113735688</v>
+        <v>28.45675869428988</v>
       </c>
       <c r="G13">
-        <v>37.59913299637505</v>
+        <v>40.37485274080966</v>
       </c>
       <c r="H13">
-        <v>15.90904145988342</v>
+        <v>11.63611911935936</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.22669471555187</v>
+        <v>18.78274471339216</v>
       </c>
       <c r="L13">
-        <v>9.063135094497106</v>
+        <v>8.93970319497584</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.28677245657889</v>
+        <v>12.43181333210234</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.21244392404488</v>
+        <v>17.18170332538221</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.48015867924576</v>
+        <v>4.192713523261126</v>
       </c>
       <c r="E14">
-        <v>16.29968661630998</v>
+        <v>10.12686349040946</v>
       </c>
       <c r="F14">
-        <v>29.12838261366253</v>
+        <v>28.26889824611025</v>
       </c>
       <c r="G14">
-        <v>37.54323296572114</v>
+        <v>40.08380657676124</v>
       </c>
       <c r="H14">
-        <v>15.90971028557557</v>
+        <v>11.59851760773588</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.14797774804778</v>
+        <v>18.62533599818104</v>
       </c>
       <c r="L14">
-        <v>9.052056340306178</v>
+        <v>8.862418492788183</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.29850685561216</v>
+        <v>12.47785301247988</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.19579401300373</v>
+        <v>17.10167774194732</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.47903601533984</v>
+        <v>4.190590264245125</v>
       </c>
       <c r="E15">
-        <v>16.30363019344263</v>
+        <v>10.13468375413394</v>
       </c>
       <c r="F15">
-        <v>29.11032446295639</v>
+        <v>28.15386980930609</v>
       </c>
       <c r="G15">
-        <v>37.50917813682463</v>
+        <v>39.90553846967661</v>
       </c>
       <c r="H15">
-        <v>15.91018072728171</v>
+        <v>11.5756666272276</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.09945288897283</v>
+        <v>18.52838730739348</v>
       </c>
       <c r="L15">
-        <v>9.045297518355341</v>
+        <v>8.814821934354983</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.30573089786891</v>
+        <v>12.50609914386355</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.10113664182663</v>
+        <v>16.63898910888275</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.472565955553837</v>
+        <v>4.178335323279054</v>
       </c>
       <c r="E16">
-        <v>16.32668932029886</v>
+        <v>10.18062493365119</v>
       </c>
       <c r="F16">
-        <v>29.00899371316782</v>
+        <v>27.49539311773562</v>
       </c>
       <c r="G16">
-        <v>37.31691286735857</v>
+        <v>38.88413803280821</v>
       </c>
       <c r="H16">
-        <v>15.91380799394959</v>
+        <v>11.44746397202733</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.8166643011958</v>
+        <v>17.96462641064821</v>
       </c>
       <c r="L16">
-        <v>9.006990787048046</v>
+        <v>8.538093742339527</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.34768742531016</v>
+        <v>12.66868207170452</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.04376654601309</v>
+        <v>16.35155109855107</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.468564491933908</v>
+        <v>4.170741868428565</v>
       </c>
       <c r="E17">
-        <v>16.34124639032095</v>
+        <v>10.20979795236283</v>
       </c>
       <c r="F17">
-        <v>28.94877309165365</v>
+        <v>27.09215252401501</v>
       </c>
       <c r="G17">
-        <v>37.20159061684542</v>
+        <v>38.25781852633337</v>
       </c>
       <c r="H17">
-        <v>15.91686416907262</v>
+        <v>11.37123719809666</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.63899606653514</v>
+        <v>17.61142739422981</v>
       </c>
       <c r="L17">
-        <v>8.983878888741566</v>
+        <v>8.364759498991287</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.37392558860695</v>
+        <v>12.76908010107249</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.0110351775851</v>
+        <v>16.18493045248878</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.466251208772249</v>
+        <v>4.166347596485047</v>
       </c>
       <c r="E18">
-        <v>16.34977048967507</v>
+        <v>10.22693525409941</v>
       </c>
       <c r="F18">
-        <v>28.91485779160904</v>
+        <v>26.86051910682739</v>
       </c>
       <c r="G18">
-        <v>37.13624416249468</v>
+        <v>37.8977301825896</v>
       </c>
       <c r="H18">
-        <v>15.9189273092436</v>
+        <v>11.32827161690007</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.53527532960426</v>
+        <v>17.40555923058283</v>
       </c>
       <c r="L18">
-        <v>8.970731464372586</v>
+        <v>8.263740089620473</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.38920088312304</v>
+        <v>12.8270763429251</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.99999954170276</v>
+        <v>16.12829614929729</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.465465964667809</v>
+        <v>4.164855278374555</v>
       </c>
       <c r="E19">
-        <v>16.3526826010383</v>
+        <v>10.23279855395559</v>
       </c>
       <c r="F19">
-        <v>28.90349940809259</v>
+        <v>26.78214747259319</v>
       </c>
       <c r="G19">
-        <v>37.11428968984581</v>
+        <v>37.7758425517486</v>
       </c>
       <c r="H19">
-        <v>15.9196782812764</v>
+        <v>11.31387389168547</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.49989519118464</v>
+        <v>17.33538765646891</v>
       </c>
       <c r="L19">
-        <v>8.966305346683361</v>
+        <v>8.229308675740883</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.39440443563968</v>
+        <v>12.8467565485189</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.04984633197579</v>
+        <v>16.38228393054954</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.468991673047956</v>
+        <v>4.171552992557716</v>
       </c>
       <c r="E20">
-        <v>16.33968111532128</v>
+        <v>10.20665527889143</v>
       </c>
       <c r="F20">
-        <v>28.95510913386614</v>
+        <v>27.13504805037367</v>
       </c>
       <c r="G20">
-        <v>37.2137654572448</v>
+        <v>38.32447665921063</v>
       </c>
       <c r="H20">
-        <v>15.91650723367457</v>
+        <v>11.37926052767176</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.65806776102458</v>
+        <v>17.64930692864073</v>
       </c>
       <c r="L20">
-        <v>8.986324160958135</v>
+        <v>8.383347844295189</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.37111347682887</v>
+        <v>12.75836686791693</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.22044105078551</v>
+        <v>17.22000458492747</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.48069637672114</v>
+        <v>4.193730101793956</v>
       </c>
       <c r="E21">
-        <v>16.29780369532764</v>
+        <v>10.12313361264161</v>
       </c>
       <c r="F21">
-        <v>29.13707977127246</v>
+        <v>28.32406891282832</v>
       </c>
       <c r="G21">
-        <v>37.55961359969949</v>
+        <v>40.16929281437763</v>
       </c>
       <c r="H21">
-        <v>15.90950117154664</v>
+        <v>11.60952428994936</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.17116314375411</v>
+        <v>18.67168136899356</v>
       </c>
       <c r="L21">
-        <v>9.055304782297931</v>
+        <v>8.885172471916276</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.29505259766348</v>
+        <v>12.46432060478745</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.33410429413605</v>
+        <v>17.75547143009081</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.488238926841927</v>
+        <v>4.207964776417709</v>
       </c>
       <c r="E22">
-        <v>16.27177706561831</v>
+        <v>10.07186365057163</v>
       </c>
       <c r="F22">
-        <v>29.26225971679058</v>
+        <v>29.10311572484736</v>
       </c>
       <c r="G22">
-        <v>37.79400137923619</v>
+        <v>41.37538821885905</v>
       </c>
       <c r="H22">
-        <v>15.90764193980083</v>
+        <v>11.76808586909776</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.49271542642806</v>
+        <v>19.31603602151098</v>
       </c>
       <c r="L22">
-        <v>9.101615602023799</v>
+        <v>9.20159339398802</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.2469718054854</v>
+        <v>12.27420205514601</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.27325146064988</v>
+        <v>17.47080369278006</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.484223252969789</v>
+        <v>4.200392231277555</v>
       </c>
       <c r="E23">
-        <v>16.28554531576589</v>
+        <v>10.09891723101623</v>
       </c>
       <c r="F23">
-        <v>29.19488579398921</v>
+        <v>28.68717290569226</v>
       </c>
       <c r="G23">
-        <v>37.66815984242497</v>
+        <v>40.73167078155787</v>
       </c>
       <c r="H23">
-        <v>15.90838540141488</v>
+        <v>11.68270773957102</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.32236474447205</v>
+        <v>18.9742918399425</v>
       </c>
       <c r="L23">
-        <v>9.076789811223993</v>
+        <v>9.033758808492506</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.27248469042944</v>
+        <v>12.37549178820206</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.04709687520403</v>
+        <v>16.36839387413094</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.468798584252629</v>
+        <v>4.171186372475521</v>
       </c>
       <c r="E24">
-        <v>16.34038829317384</v>
+        <v>10.20807494499453</v>
       </c>
       <c r="F24">
-        <v>28.95224240699633</v>
+        <v>27.11565436671951</v>
       </c>
       <c r="G24">
-        <v>37.2082582362343</v>
+        <v>38.29434053274171</v>
       </c>
       <c r="H24">
-        <v>15.91666765063982</v>
+        <v>11.3756305100284</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.64945035788417</v>
+        <v>17.63219034546785</v>
       </c>
       <c r="L24">
-        <v>8.985218216787324</v>
+        <v>8.374948314401429</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.37238423865547</v>
+        <v>12.7632094588475</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.81344942890593</v>
+        <v>15.13034174166745</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.451712939403131</v>
+        <v>4.138674267155232</v>
       </c>
       <c r="E25">
-        <v>16.40533092143595</v>
+        <v>10.33943720660122</v>
       </c>
       <c r="F25">
-        <v>28.71819960144747</v>
+        <v>25.43272216843975</v>
       </c>
       <c r="G25">
-        <v>36.74999881197252</v>
+        <v>35.67230445432276</v>
       </c>
       <c r="H25">
-        <v>15.9372710888194</v>
+        <v>11.07781291973041</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.981640757603133</v>
+        <v>16.08050335692021</v>
       </c>
       <c r="L25">
-        <v>8.892060711459147</v>
+        <v>7.613675250277116</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.48717375456373</v>
+        <v>13.19108014954301</v>
       </c>
       <c r="O25">
         <v>0</v>
